--- a/500all/speech_level/speeches_CHRG-114hhrg95420.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95420.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="385">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. Committee on Oversight and Government Reform will come to order. Without objection, the Chair is authorized to declare a recess at any time.    This afternoon, the United States Government--or sorry--this morning, the United States Government Accountability Office released its annual report on duplicative Federal programs. It has been the case for the past 5 years there's a vast opportunity for the Federal Government to save hard-earned taxpayer dollars.    One day before Americans have to on the--one day before Americans have to pay their taxes, the GAO report identifies 24 new areas where Federal Government agencies are wasting resources. To help remedy this waste and improve the effectiveness of our government, the report recommends more than 66 actions to save money. Some examples from this year's report include eight Federal agencies administer more than 100 programs to support individuals with serious mental illness. The GAO also identifies 42 Federal, State, and local nonemergency medical transportation programs that currently lack coordination, leading to poor outcomes.    Further, the GAO noted that the National Oceanic and Atmospheric Administration, often referred to as NOAA, maintains 21 separate systems to monitor sea surface temperature and 14 to measure just one--just ocean surface wind speeds. Even NOAA has admitted this level of redundancy is unnecessary.    Finally, the report also draws--also draws new attention to the broken down FOIA process at the Department of Homeland Security. Today, Department of Homeland Security is responsible for more than half of all reported backlog FOIA requests. This is completely unacceptable.    All told, in the first 5 years of the report, GAO has identified more than 200 areas with wasted Federal resources. As a result, GAO has recommended more than 500 actions to save money and approve efficiency. By implementing about a third of these, GAO recommendations in prior years, the government managed to save roughly $20 billion, which is a start, but more needs to be done.    Addressing the remaining recommendations has the potential to save American taxpayers $80 billion by the year 2023. Over and again, the GAO's duplication reports have shown how precious dollars are wasted when Federal agencies fail to work together. GAO has specifically identified dozens of areas where increased guidance, oversight, and coordination from OMB would create greater efficiency. These would also reduce costs to the taxpayers, including the way for the Federal Government to acquire needed goods and services.    Yet OMB to date has only fully addressed about a third of GAO's recommended actions. It has to do better to fully justify the taxpayers' trust in its mission. With Americans projected to pay the government $1.5 trillion in individual income taxes, we must ensure greater return on taxpayer investment by reducing inefficiencies and redundancies.    I want to thank the GAO for, once again, providing Congress and the executive branch with a road map to achieve the needed savings. There are literally thousands of good men and women who work tirelessly through the course of a year and beyond, to develop these reports, and we very much appreciate it. Look forward to hearing from the witnesses on how the government can make greater progress in achieving a more efficient, effective, and accountable government. That's what we're all here to do, and this is a good opportunity for both sides of the aisle, the administration, the GAO, to all to come together and discuss these topics and figure out how we can make more of the precious Federal dollars.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Cobert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Cobert. Yes.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman, for holding what has become a critical annual hearing for our committee and for making sure that GAO's report gets the attention it warrants.    Today's hearing will focus on GAO's fifth annual report on duplicative programs and opportunities for cost savings. It will allow us to zero in on areas where we can work together to cut waste and save money. That is what this committee is all about and that is what our constituents expect of us.    Unfortunately, today's report from GAO indicates that Congress has been doing far worse than the executive branch in implementing recommendations to eliminate duplication and to promote the efficiency and effectiveness of the Federal Government. According to GAO's report, the executive branch has fully or partially completed 86 percent of GAO's recommendations, while Congress is struggling around 45 percent. Clearly Congress must do a better job of focusing on its own actions, rather than trying to blame everything on the executive branch. Specifically, GAO has made 369 recommendations for the executive branch and 317 have now been fully or partially completed. In contrast, GAO has made 69 recommendations for Congress, but only 31 of those have been fully or partially completed.    This year's report from GAO highlights some areas where Congress could legislate to eliminate waste and duplication. For example, GAO recommended that Congress consider permanently rescinding the entire $1.6 billion balance of U.S. Enrichment Corporation fund. According to GAO, the Congress authorized this revolving fund in the U.S. Treasury for environmental cleanup costs associated with disposing of depleted uranium at two specific facilities and for expenses related to the fund's privatization. GAO has determined that both of the funds purposes have been completed, but only Congress can permanently rescind the entire balance of the fund.    Overall, it is clear that significant progress has been made in implementing GAO's recommendations over the past 4 years. GAO made a total of about 440 recommendations between 2011 and 2014, and about 348 of these have been fully or partially addressed by the executive branch and Congress. GAO estimates that these efforts have resulted in about $20 billion in financial benefits to date, with another $80 billion in savings projected through 2023. We must recognize these accomplishments and shine a light on them. We want them to become the model that we'll strive to achieve.    And at the same time, it is also clear that more work simply needs to be done. For example, GAO identified potential duplication in laboratory inspections. GAO highlighted one laboratory that had been inspected eight times by the Environmental Protection Agency and the Drug and Food Administration over an 8-year span. Of course these facilities must be rigorously inspected. But if relevant information had been shared between the two agencies, they might have reduced duplication and been able to direct attention to other needed inspections. Better leveraging of resources and potentially increasing the number of facilities inspected serves not only the best interest of the agencies, but of the taxpayers as well.    To conclude, I want to thank both of our witnesses, Mr. Dodaro and Ms. Cobert, for being here today. Mr. Dodaro, you and your talented staff, are providing a critical service to the Congress and the American people by issuing this report. I also appreciate the work that you and your colleagues at GAO do every day to increase the effectiveness and efficiency of the Federal Government and to help ensure that our tax dollars are spent wisely.    And with that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. I will now recognize Mr. Dodaro for 5 minutes.</t>
   </si>
   <si>
-    <t>Dodaro</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Dodaro. Thank you very much, Mr. Chairman. Good afternoon to you. Ranking Member Congressman Cummings, members of the committee, I'm very pleased to be here today to discuss GAO's 2015 report.    We identified 24 new areas with 66 recommendations. These include a recommendation to the Congress to create a formal coordinating group to focus on the oversight of consumer protection issues. There are 20 different agencies involved in this effort at least. There's fragmentation, overlap of responsibilities, and greater efficiencies that can be achieved as well as better protection to the public.    We also have recommendations for greater coordination among the 42 programs and six agencies that provide nonemergency medical transportation. Here we're concerned that not enough cooperation has been gained yet from the Medicaid and VA programs, which are big players. And there's not a cost sharing agreement in place. The council coordinating this activity hasn't met since 2008. This is a big issue, particularly with the aging of our population and the need for these nonemergency medical services among the aged, the disabled, and those without the means to provide their own transportation for needed health care.    We also identified a component of provider within the DOD healthcare system that was set up originally in 1982. It's now being duplicated by the TRICARE program, which was established in the 1990s, and we recommend that that component can be eliminated, thus saving millions of dollars with a careful transition to ensure that nobody has interruption in services that are provided.    We also recommend reexamination of the Strategic Petroleum Reserve. With U.S. production now at record levels, and reserves growing both in the Strategic Petroleum Reserve and the--and private sector reserves, we now hold much more than we have to to meet international requirements in the reserve. This could free up potentially, based on the reexamination, oil that could be sold to reap billions of dollars that could be used for other government priorities and also reduce the operating costs of the Strategic Petroleum Reserve, which is aging and in need of further repair.    We also identified areas that were established of 11 hospitals that provided cancer treatment in the 1980s when most cancer treatment was in-patient concern. Now, more hospitals can provide it as outpatient concerns. And if those hospitals were treated the same way other hospitals that are treating cancer payments now and at a level playing field, the Federal Government could save $500 million a year in Medicare spending, healthcare spending. So these are a few of the examples.    As has been mentioned, in the past 4 years, we've had over 440 recommendations. Thirty seven percent have been fully implemented. Thirty nine percent partially. Twenty percent not at all. The amount of money that's been saved so far has been $20 billion in implementing our recommendations, with another $80 billion in the works that should be achieved in the coming years. But there's plenty of money left on the table here in areas that can produce additional billion dollars in savings and efficiencies. We've grouped them into a number of categories. You could be more aggressive on strategic sourcing, the leverage, the government's buying power. Right now, OMB is moving on this as Beth will talk about, but we need to be more aggressive in setting targets and to achieve the savings that are necessary.    In February, I was before this committee talking about IT operations and the acquisitions. We put it on our high-risk list across government. Their concerted efforts could save millions of dollars, if not billions of dollars in waste and inefficiencies in IT operations. We've had many recommendations to streamline activities at the Defense Department to reduce overhead, help control their healthcare costs, reduce the cost of weapon systems. We have recommendations to reform Medicare and Medicaid payment processes and oversight processes to reduce healthcare spending, which is much needed at this point in time. We've got recommendations to also increase tax revenues and to rationalize some benefit programs where there's some overlapping and duplication in benefit programs.    So I appreciate the opportunity to be here today and discuss these areas in further detail during the questions-and-answer period when it's appropriate. Mr. Chairman, thank you very much.</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>400116</t>
   </si>
   <si>
-    <t>John J. Duncan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Well, thank you. Thank you very much, Mr. Chairman, and thank you for holding this what I think is a very, very important hearing. And I first want to join the ranking member, Mr. Cummings, in complimenting the GAO for the $20 billion in savings thus far and the what I see as the potential of $80 billion in the years ahead.    I can--one area that's of great interest to me for many years has been this disposal of excess Federal property. The chairman and I both have worked on that for several years. And I notice that the OMB says they have a national strategy in place, but the GAO says or does not agree.    Can you explain why the GAO does not agree with the approach that OMB is taking on this thus far, Mr. Dodaro? And then we'll have Ms. Cobert respond.</t>
   </si>
   <si>
@@ -139,9 +124,6 @@
     <t xml:space="preserve">    Mr. Dodaro. With regard to the headquarters operations, I'll ask Cathy Berrick, who is our expert in defense. But basically, Congressman, they're only looking at certain aspects of their headquarters operations when we believe they ought to be looking more broadly across the department. And as a result, they're not seeing good opportunities, as many opportunities as we believe need to be reviewed. And they need to do it on a regular basis.    Cathy.</t>
   </si>
   <si>
-    <t>Berrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Berrick. Sure. There's really two issues with the growth and management headquarters of the Department of Defense. The first issue is there has been significant growth and DOD hasn't been doing a periodic reevaluation of resources dedicated to headquarters. So, for example, we recently issued a report looking at the three functional combatant commands. There's about 10,500 civilian and military personnel dedicated to headquarters at these three commands. That's grown over 50 percent in the last 10 years. And that is a similar trend that we've seen across the geographic combatant commands, OSD to joint staff, and other organizations. So we think that DOD needs to do a periodic reassessment of resources devoted to those entities.    The second issue is DOD is pursuing cuts within its management headquarters functions at the Department. The Secretary of Defense directed a 20 percent cut. The problem is, as the comptroller general mentioned, it's focused on a very small percentage of the headquarters within DOD. So, for example, of the functional combatant commands that I reference, there's 10,500 personnel--headquarters personnel dedicated. These cuts will only apply to less than a quarter of those personnel. So we've recommended that DOD look more broadly at all of its headquarters personnel versus just this small--relatively small portion called management headquarters.</t>
   </si>
   <si>
@@ -154,9 +136,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you, Mr. Chairman.    I note that tomorrow is so-called Tax Day, April 15. And that--and I'm going to really be interested in next year's report because it looks like the Congress has shot itself in the foot and added to the deficit by what it's done to the IRS. I've never seen anything like it.    The reports all over the country are of people waiting in line to get audits and other questions answered. As of April 15, you could get no information in. Before that, you could get very little information. And if so you had to go to the tax advocate. This is a recipe for inefficiency in an agency that we depend upon if we want to reduce our deficit. Now, of course, much of that is going to come out in some way, I suspect, Mr. Dodaro, in your--in your report next year. But this so-called tax gap is, I believe, already showing it.    The most recent figures I've been able to get about the tax gap, that's the--the difference between what people owe in taxes and what they actually report, the figure I get is close to $400 billion or $385 billion. Does that sound about right?</t>
   </si>
   <si>
@@ -175,9 +154,6 @@
     <t xml:space="preserve">    Mr. Dodaro. I'm going to ask Jay McTigue, who heads up our IRS work, to respond.</t>
   </si>
   <si>
-    <t>McTigue</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McTigue. Yes, Congressman. Over the last several years, since about 2010, the audit rate for individuals is down about 25 percent, and the audit rate for businesses larger than $10 million in assets has also declined, in that case, about 30 percent.</t>
   </si>
   <si>
@@ -238,9 +214,6 @@
     <t xml:space="preserve">    Mr. Dodaro. Yeah. Mr. Gaffigan is our expert in this area.</t>
   </si>
   <si>
-    <t>Gaffigan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gaffigan. Mr. Chairman, the--we have some ongoing work. We haven't been looking at the park service in a long time. There are 407 different park units throughout the country ranging from Yosemite to small little sites like the Rosie the Riveter historic sites.</t>
   </si>
   <si>
@@ -268,9 +241,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair.    Mr. Dodaro, one issue identified in today's GAO report as an area of potential cost savings is the management of information technology investments. This is particularly--particularly an important area to invest in, giving our committee's growing focus on cybersecurity and, to me, as the ranking member on the IT subcommittee. Today's GAO report estimates that, at least, $79 billion will be spent on information technology by the Federal Government in fiscal year 2015. Is that accurate?</t>
   </si>
   <si>
@@ -283,9 +253,6 @@
     <t xml:space="preserve">    Mr. Dodaro. There are billions of dollars that can be saved in that area. I will have--Mr. Powner is our expert in the IT area. He can enumerate for you.</t>
   </si>
   <si>
-    <t>Powner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Powner. Yeah. Probably the key area is data center consolidation. Right now we have 9----</t>
   </si>
   <si>
@@ -319,9 +286,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Yeah. We prefer to call it Issa Connolly up here but----</t>
   </si>
   <si>
@@ -346,18 +310,12 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. [Presiding.] I thank the gentlelady. The chair recognizes the gentleman from South Carolina, Mr. Mulvaney.</t>
   </si>
   <si>
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Thank you, Mr. Chairman. Thanks everybody for doing this. This is actually one of the enjoyable hearings that we get to do. If you were here earlier today, you got an example of the unenjoyable ones.    Mr. Dodaro, let's start with you and some general language. I'm curious as to how we can help. I was struck by Mr. Cummings' opening comments saying that Congress is actually sort of lagging behind the executive branch when it comes to fixing things. Give me a couple of examples for me and my colleagues as to what Congress could be doing to help implement your recommendations. What--what have we ignored so far?</t>
   </si>
   <si>
@@ -388,9 +346,6 @@
     <t xml:space="preserve">    Mr. Dodaro. Yes. Yes. Yeah. We find that there are many reviews within the system that are duplicative and take years to complete and thousands of man hours to be able to handle those things. I will ask Paul Francis to explain.    But we think the weapons systems acquisition process can be streamlined from a process standpoint, but they also need to implement best practices to mature technologies before they go into production. Both things have the potential to save tens of billions of dollars.</t>
   </si>
   <si>
-    <t>Francis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Francis. Good afternoon. Yes. So what Mr. Dodaro just said, on the efficiencies, we found that, for a major milestone decision it takes 2 years for programs to get all the documents lined up for that, 5,600 staff days. And we find half of that time is reviewing documents, not preparing them.</t>
   </si>
   <si>
@@ -415,9 +370,6 @@
     <t>412616</t>
   </si>
   <si>
-    <t>Ted Lieu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lieu. Thank you. Let me first thank the panel for your public service.    And I have questions about the laboratory inspections in the report. And it's my understanding that both the EPA and the FDA conduct laboratory inspections, is that correct?</t>
   </si>
   <si>
@@ -514,9 +466,6 @@
     <t>412627</t>
   </si>
   <si>
-    <t>Rod Blum</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Blum. Thank you, Mr. Chairman.    Thank you for being here today. I appreciate your service to the government.    I'm a career small businessman, so I may be one of the few here that--that, A, gets into this and, B, I personally think the GAO is one of the most important departments in our Federal Government. I'm also new here. I'm a freshman congressman, so I get a pass when I get to ask these dumb questions.    First question. There are 24 programs, I believe, on your report for duplication of services. If you were a betting man, how many do you think are going to be on that report next year that were on the report this year?</t>
   </si>
   <si>
@@ -595,9 +544,6 @@
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    Inspector Dodaro, I was pleased to see that you included in your report the savings the government is already realizing from the Army's choice not to introduce a new family of camouflage uniforms into its inventory. Your report notes that this will save taxpayers about $4.2 billion over the next 5 years, and in fact I offered the amendment in the 2014 NDAA that requires DOD to establish a joint camouflage pattern when developing new combat uniforms so that the taxpayers won't have to pay millions to the government to keep developing new patterns for every branch of service, that also sometimes don't protect troops in combat such as the Navy's blueberry uniform that they can't wear on ships because when they fall over into the--fall overboard, they are blended with the ocean and you can't actually rescue the sailors.    Can you give me an update on where DOD's compliance is with this requirement?</t>
   </si>
   <si>
@@ -649,9 +595,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman, and I, like my other colleagues, thank you both for being here and all that you do. Of course you've just got a critical responsibility, and we appreciate the information that you provide.    I think we all know and probably most of us would readily admit the obvious appearance is we've created a monster around here, and you guys are tasked with the responsibility of keeping us aware of just how big that monster is and what we can potentially do to, to reign it in a little bit. And I wonder in that context with all the duplication that you've mentioned, are there any areas that you would just come out and be able to identify as unnecessary, that we've got so much duplication, that this area or the other one we could just do away with?    I'll start with you, Mr. Dodaro.</t>
   </si>
   <si>
@@ -706,9 +649,6 @@
     <t>412638</t>
   </si>
   <si>
-    <t>Brenda L. Lawrence</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you, Mr. Chairman.    I want to thank you for being here today on this liquid sunshine day.    The report issued by GAO details major progress made by the executive agencies and Congress. Based on this year's report it looks like Congress is not doing as well as the executive branch at implementing the GAO recommendations on waste, fraud, and abuse. According to the report, GAO made 369 recommendations to the executive branch, and 317 of those recommendations have been fully implemented. Is that correct?</t>
   </si>
   <si>
@@ -748,9 +688,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. If the gentlelady would yield, I'd just like to point out that the GAO recommendations from last year are in this year's budget that was passed by the House.</t>
   </si>
   <si>
@@ -760,18 +697,12 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Yeah. Thanks for being here, and you certainly presented a--many, many ways for the government to save money, and we hope they all survive the appropriations process. There are two I want to focus on in particular.    One is you talk about abuse of children's SSI benefits, and I know recently that the number of people--children who are being described as disabled has gone through the roof, and of course there's certainly a lot of anecdotal evidence of severe abuses here. I wonder if you could elaborate on that a little bit.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Dodaro. Yeah. Basically I'll ask Ms. Bovbjerg, who's our expert in the area, to elaborate a bit. But the basic issue, Congressman, is that they're supposed to have continuing reviews to see if the situation has improved so that the children or even adults in that matter can overcome their disability, but Barb.</t>
   </si>
   <si>
-    <t>Bovbjerg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bovbjerg. Yeah. Continuing disability reviews are medical reviews to see if they're still qualified for disability benefits. And the Social Security Administration has really not been doing many for children. And they have told us that the reason for this is that they--they're husbanding their resources and they've chosen to focus on the adults. But the fact of the matter is they really have not done the level of continuing disability review for any age that they should be doing. This is something that every dollar spent saves $9 in Federal funds. And in this case we were talking about children in Supplemental Security Income, which is a general fund program. But if you think about it also for disability insurance, which is a trust fund funded program, this is a program integrity issue in programs that are going to run out of money. So it's really important that they take this very seriously because otherwise they will be paying disability benefits for years to people who have medically improved to the extent that they don't--they don't any longer meet the eligibility requirements.</t>
   </si>
   <si>
@@ -814,9 +745,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman, and thank you each for being here and for the work that you do.    The Social Security department shows six and a half million active accounts to Americans that are at least 112 years old or older. Have you run into any of this in your own accounting for the problems that we have on--I mean, we talk a lot about the disability, and we know the trouble that it is in, but six and a half million active accounts of Americans that are 112 years old or older?</t>
   </si>
   <si>
@@ -838,9 +766,6 @@
     <t xml:space="preserve">    Mr. Dodaro. You know, I don't know if we've----</t>
   </si>
   <si>
-    <t>Bascetta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bascetta. We haven't done work specifically on that question, but we do know that for many years before the recent concerns about waiting times at the--at the VA, there were--there were limitations in their ability to take care of all of the veterans. So they've always had a capacity to send veterans out on the market for what they then call fee basis care. That was greatly expanded through the Choice program. We have very significant concerns not only in the civilian sector, but actually in--for all of us about coordination of care in those situations. It's one thing to have the most cost effective care available. That's critically important, but the quality of that care and the coordination to ensure that the care is actually value based is where we are really trying to drive care for everybody in----</t>
   </si>
   <si>
@@ -859,9 +784,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you. Thank you, Mr. Chairman. Welcome to all the witnesses. Good to see you again, Mr. Dodaro, and I'd like to ask you about the Data Act which was passed in a bipartisan way by this committee, and it helps reduce duplication by making spending data comparable across all programs. This also allows the executive branch to better measure the cost to the Federal Government for these investments. When you testified last year before this committee, you said that passing the Data Act, ``One of the biggest single things that could be done in order to provide more transparency on the cost of these programs and activities.'' Do you remember saying that?</t>
   </si>
   <si>
@@ -952,9 +874,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman. Thank you, Mr. Dodaro, appreciate your time, and all the witnesses there. Only two have nodded off in the last 30--no. I'm just teasing you. We wouldn't blame you at certain times, but I am--I've got a couple questions here but I want to get more in depth in the process a little bit. Sometimes we get a little bit more subjective than objective, and even heard the gentlelady from Michigan talking about if we could only replicate more the way the executive branch operates.    And I want to talk a little bit about the process. Obviously, you have a very distinguished career, winning many awards, and except the 2013 Braden Award, most of those awards came before you took over the GAO office, and I don't know if that means you did a great job or exactly what. But my question is, my first question is, when you're implementing or taking action steps, can you talk about the process when you see there's an issue, there's a concern, I'd like to take it from a 30,000-foot perspective, but then hone in on a couple Medicare questions in just a minute.</t>
   </si>
   <si>
@@ -1012,9 +931,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman. And thank you to the panel for being here.    And Mr. Dodaro, I wish you could have talked about comprehensive tax reform a little longer. And as I sit here and listen, I am constantly brought back to the fact that maybe just per chance we've let the Federal Government get too large, but I appreciate the work you're doing in looking into what's going on.    Relative to FOIA review process, DHS has the largest backlog of any Federal agency. How does the duplicative processing like with USCIS and ICE where USCIS process certain requests, and then sends requests to ICE which processes them a second time? They had a different working relationship earlier on. How does that duplicative processing of requests contribute to the backlog?</t>
   </si>
   <si>
@@ -1075,9 +991,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman, and thank all of you for being here. This is very important and very informative, and we appreciate it very much.    Mr. Dodaro, I want to speak--I know that the previous Congressman questioned you about DHS, but I'd like to go further into that, and it's important to me for two reasons. First of all, I'm a member of the Homeland Security Committee. So it's important for that reason, but, secondly, and perhaps most importantly, I have a bill, one of my first bills that I've introduced, House Resolution 1615, that deals with this. As you know, the Department of Homeland Security has more FOIA requests than any other department, and not only that, but right now the backlog of all Federal FOIA requests, the Department of Homeland Security has more than half, which is really alarming. Now, again, I want to ask you because my legislation really calls for the elimination of duplication, and I want to ask you again about USCIS and then ICE and the duplication there. Is there indeed duplication in that process? Are they both--are they both processing the FOIA requests----</t>
   </si>
   <si>
@@ -1169,9 +1082,6 @@
   </si>
   <si>
     <t>400273</t>
-  </si>
-  <si>
-    <t>John L. Mica</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mica. Thank you, Chairman Meadows.    And, Mr. Dodaro, welcome. Ms. Cobert.    One of the things we've worked on, in fact, worked closely with Mr. Meadows, is my interest in fulfilling the findings we did in the reports some years ago. The title of it was the Federal Government Must Stop Sitting On Its Assets. And we looked at properties as one part of it and we've actually taken that on. I think you've endured a few of our hearings. We had some pretty good successes when you drive down Pennsylvania Avenue and you see the old post office building that was costing us $6 to $8 million a year. It will soon be a five star hotel and a first class commercial center, probably employing a thousand people and paying us--I think the deal we cut was about a quarter of a million a month, plus a percentage of the gross. Not too bad. And other properties. But unfortunately the successes are fairly limited.    DOD, for example, under the information I've gotten from staff and, I think, from you all, says that DOD has 560,000 facilities worldwide and, as of September, only had a utilization rate of 53 percent. Is that correct?    Who is going to----</t>
@@ -1657,11 +1567,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1683,11 +1591,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1707,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1735,11 +1639,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1759,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1787,11 +1687,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1813,11 +1711,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1837,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1865,11 +1759,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1891,11 +1783,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1915,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1943,11 +1831,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1969,11 +1855,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1993,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2019,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2045,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2071,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2097,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2123,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2149,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2175,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2201,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2227,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2255,11 +2119,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2279,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2305,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2331,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2357,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2383,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2409,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2435,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2461,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2487,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2513,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2539,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>53</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2565,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2591,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2617,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2643,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2669,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2695,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2721,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2747,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2773,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2801,11 +2623,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2825,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2853,11 +2671,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2877,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2905,11 +2719,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2929,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2955,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2983,11 +2791,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3007,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3035,11 +2839,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3059,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3085,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3111,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3139,11 +2935,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3163,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3189,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3215,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3241,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3267,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3293,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3319,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3345,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3371,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3397,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>83</v>
-      </c>
-      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
         <v>84</v>
-      </c>
-      <c r="H69" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3423,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3449,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3475,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3501,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3527,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>100</v>
-      </c>
-      <c r="G74" t="s">
-        <v>101</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3553,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3579,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3605,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G77" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3631,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
-      </c>
-      <c r="G78" t="s">
-        <v>101</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3657,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3683,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
-      </c>
-      <c r="G80" t="s">
-        <v>101</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3709,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
-      </c>
-      <c r="G81" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3735,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>112</v>
-      </c>
-      <c r="G82" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3761,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3787,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>112</v>
-      </c>
-      <c r="G84" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3813,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3839,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>112</v>
-      </c>
-      <c r="G86" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3865,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3891,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
-      </c>
-      <c r="G88" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3917,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3943,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
-      </c>
-      <c r="G90" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3969,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3995,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s">
-        <v>124</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4021,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
-      </c>
-      <c r="G93" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4047,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s">
-        <v>124</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4073,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" t="s">
+        <v>99</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
         <v>113</v>
-      </c>
-      <c r="H95" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4099,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s">
-        <v>124</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4125,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
-      </c>
-      <c r="G97" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4151,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>109</v>
-      </c>
-      <c r="G98" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4177,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
-      </c>
-      <c r="G99" t="s">
-        <v>133</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4203,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4229,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G101" t="s">
-        <v>133</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4255,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4281,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>132</v>
-      </c>
-      <c r="G103" t="s">
-        <v>133</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4307,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4333,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>132</v>
-      </c>
-      <c r="G105" t="s">
-        <v>133</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4359,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4385,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4411,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
-      </c>
-      <c r="G108" t="s">
-        <v>133</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4437,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s">
-        <v>74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4463,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
-      </c>
-      <c r="G110" t="s">
-        <v>133</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4489,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
-        <v>74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4515,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4541,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>132</v>
-      </c>
-      <c r="G113" t="s">
-        <v>133</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4567,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4593,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>132</v>
-      </c>
-      <c r="G115" t="s">
+        <v>117</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
         <v>133</v>
-      </c>
-      <c r="H115" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4619,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4645,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>132</v>
-      </c>
-      <c r="G117" t="s">
-        <v>133</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4671,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4697,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" t="s">
-        <v>74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4723,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4749,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>132</v>
-      </c>
-      <c r="G121" t="s">
-        <v>133</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4775,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s">
-        <v>74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4801,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4827,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>132</v>
-      </c>
-      <c r="G124" t="s">
-        <v>133</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4853,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4879,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>132</v>
-      </c>
-      <c r="G126" t="s">
-        <v>133</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4905,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4931,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>132</v>
-      </c>
-      <c r="G128" t="s">
-        <v>133</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4957,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4983,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>109</v>
-      </c>
-      <c r="G130" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5009,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>165</v>
-      </c>
-      <c r="G131" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5035,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5061,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>165</v>
-      </c>
-      <c r="G133" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5087,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5113,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>165</v>
-      </c>
-      <c r="G135" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5139,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5165,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>165</v>
-      </c>
-      <c r="G137" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5191,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5217,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>165</v>
-      </c>
-      <c r="G139" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5243,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5269,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>165</v>
-      </c>
-      <c r="G141" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5295,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5321,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>165</v>
-      </c>
-      <c r="G143" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5347,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5373,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>165</v>
-      </c>
-      <c r="G145" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5399,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5425,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
+        <v>149</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
         <v>165</v>
-      </c>
-      <c r="G147" t="s">
-        <v>166</v>
-      </c>
-      <c r="H147" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5451,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5477,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>165</v>
-      </c>
-      <c r="G149" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5503,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5529,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>165</v>
-      </c>
-      <c r="G151" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5555,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5581,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>165</v>
-      </c>
-      <c r="G153" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5607,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5633,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>165</v>
-      </c>
-      <c r="G155" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5659,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>109</v>
-      </c>
-      <c r="G156" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5685,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>192</v>
-      </c>
-      <c r="G157" t="s">
-        <v>193</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5711,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5737,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" t="s">
-        <v>41</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5763,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>192</v>
-      </c>
-      <c r="G160" t="s">
-        <v>193</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5789,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>15</v>
-      </c>
-      <c r="G161" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5815,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>192</v>
-      </c>
-      <c r="G162" t="s">
-        <v>193</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5841,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5867,13 +5453,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>192</v>
-      </c>
-      <c r="G164" t="s">
-        <v>193</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5893,13 +5477,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>15</v>
-      </c>
-      <c r="G165" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5919,13 +5501,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>192</v>
-      </c>
-      <c r="G166" t="s">
-        <v>193</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5945,13 +5525,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>15</v>
-      </c>
-      <c r="G167" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5971,13 +5549,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>192</v>
-      </c>
-      <c r="G168" t="s">
-        <v>193</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5997,13 +5573,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6023,13 +5597,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6049,13 +5621,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>192</v>
-      </c>
-      <c r="G171" t="s">
-        <v>193</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6075,13 +5645,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>109</v>
-      </c>
-      <c r="G172" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6101,13 +5669,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>210</v>
-      </c>
-      <c r="G173" t="s">
-        <v>211</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6127,13 +5693,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6153,13 +5717,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>210</v>
-      </c>
-      <c r="G175" t="s">
-        <v>211</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6179,13 +5741,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6205,13 +5765,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>210</v>
-      </c>
-      <c r="G177" t="s">
-        <v>211</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6231,13 +5789,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>15</v>
-      </c>
-      <c r="G178" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6257,13 +5813,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>210</v>
-      </c>
-      <c r="G179" t="s">
-        <v>211</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6283,13 +5837,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6309,13 +5861,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>210</v>
-      </c>
-      <c r="G181" t="s">
-        <v>211</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6335,13 +5885,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
-      </c>
-      <c r="G182" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6361,13 +5909,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
-      </c>
-      <c r="G183" t="s">
-        <v>41</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6387,13 +5933,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>15</v>
-      </c>
-      <c r="G184" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6413,13 +5957,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>210</v>
-      </c>
-      <c r="G185" t="s">
-        <v>211</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6439,13 +5981,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>15</v>
-      </c>
-      <c r="G186" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6465,13 +6005,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>210</v>
-      </c>
-      <c r="G187" t="s">
-        <v>211</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6491,13 +6029,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6517,13 +6053,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>109</v>
-      </c>
-      <c r="G189" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6543,13 +6077,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>229</v>
-      </c>
-      <c r="G190" t="s">
-        <v>230</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6569,13 +6101,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>15</v>
-      </c>
-      <c r="G191" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6595,13 +6125,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>229</v>
-      </c>
-      <c r="G192" t="s">
-        <v>230</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6621,13 +6149,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>15</v>
-      </c>
-      <c r="G193" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6647,13 +6173,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>229</v>
-      </c>
-      <c r="G194" t="s">
-        <v>230</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6673,13 +6197,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>15</v>
-      </c>
-      <c r="G195" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6699,13 +6221,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>229</v>
-      </c>
-      <c r="G196" t="s">
-        <v>230</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6725,13 +6245,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>15</v>
-      </c>
-      <c r="G197" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6751,13 +6269,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>229</v>
-      </c>
-      <c r="G198" t="s">
-        <v>230</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6777,13 +6293,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>15</v>
-      </c>
-      <c r="G199" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6803,13 +6317,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>229</v>
-      </c>
-      <c r="G200" t="s">
-        <v>230</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6829,13 +6341,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>15</v>
-      </c>
-      <c r="G201" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6855,13 +6365,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>229</v>
-      </c>
-      <c r="G202" t="s">
-        <v>230</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6881,13 +6389,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>15</v>
-      </c>
-      <c r="G203" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6907,13 +6413,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>229</v>
-      </c>
-      <c r="G204" t="s">
-        <v>230</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6933,13 +6437,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>243</v>
-      </c>
-      <c r="G205" t="s">
-        <v>244</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6959,13 +6461,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>109</v>
-      </c>
-      <c r="G206" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6985,13 +6485,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>247</v>
-      </c>
-      <c r="G207" t="s">
-        <v>248</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7011,13 +6509,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>15</v>
-      </c>
-      <c r="G208" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7037,13 +6533,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>15</v>
-      </c>
-      <c r="G209" t="s">
-        <v>251</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7063,13 +6557,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>247</v>
-      </c>
-      <c r="G210" t="s">
-        <v>248</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7089,13 +6581,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>15</v>
-      </c>
-      <c r="G211" t="s">
-        <v>251</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7115,13 +6605,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>247</v>
-      </c>
-      <c r="G212" t="s">
-        <v>248</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7141,13 +6629,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>15</v>
-      </c>
-      <c r="G213" t="s">
-        <v>251</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7167,13 +6653,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>15</v>
-      </c>
-      <c r="G214" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7193,13 +6677,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>247</v>
-      </c>
-      <c r="G215" t="s">
-        <v>248</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7219,13 +6701,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>15</v>
-      </c>
-      <c r="G216" t="s">
-        <v>251</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7245,13 +6725,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>15</v>
-      </c>
-      <c r="G217" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7271,13 +6749,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>247</v>
-      </c>
-      <c r="G218" t="s">
-        <v>248</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7297,13 +6773,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>15</v>
-      </c>
-      <c r="G219" t="s">
-        <v>251</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7323,13 +6797,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>247</v>
-      </c>
-      <c r="G220" t="s">
-        <v>248</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7349,13 +6821,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>109</v>
-      </c>
-      <c r="G221" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7375,13 +6845,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>265</v>
-      </c>
-      <c r="G222" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7401,13 +6869,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>15</v>
-      </c>
-      <c r="G223" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7427,13 +6893,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>15</v>
-      </c>
-      <c r="G224" t="s">
-        <v>251</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7453,13 +6917,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>265</v>
-      </c>
-      <c r="G225" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7479,13 +6941,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>15</v>
-      </c>
-      <c r="G226" t="s">
-        <v>251</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7505,13 +6965,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>265</v>
-      </c>
-      <c r="G227" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7531,13 +6989,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>15</v>
-      </c>
-      <c r="G228" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7557,13 +7013,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>15</v>
-      </c>
-      <c r="G229" t="s">
-        <v>274</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7583,13 +7037,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>265</v>
-      </c>
-      <c r="G230" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7609,13 +7061,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>15</v>
-      </c>
-      <c r="G231" t="s">
-        <v>41</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7635,13 +7085,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>265</v>
-      </c>
-      <c r="G232" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7661,13 +7109,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>109</v>
-      </c>
-      <c r="G233" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7687,13 +7133,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>280</v>
-      </c>
-      <c r="G234" t="s">
-        <v>281</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7713,13 +7157,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>15</v>
-      </c>
-      <c r="G235" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7739,13 +7181,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>280</v>
-      </c>
-      <c r="G236" t="s">
-        <v>281</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7765,13 +7205,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>15</v>
-      </c>
-      <c r="G237" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7791,13 +7229,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>280</v>
-      </c>
-      <c r="G238" t="s">
-        <v>281</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7817,13 +7253,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>15</v>
-      </c>
-      <c r="G239" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7843,13 +7277,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>280</v>
-      </c>
-      <c r="G240" t="s">
-        <v>281</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7869,13 +7301,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>15</v>
-      </c>
-      <c r="G241" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7895,13 +7325,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>280</v>
-      </c>
-      <c r="G242" t="s">
-        <v>281</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7921,13 +7349,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>15</v>
-      </c>
-      <c r="G243" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7947,13 +7373,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>15</v>
-      </c>
-      <c r="G244" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7973,13 +7397,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>280</v>
-      </c>
-      <c r="G245" t="s">
-        <v>281</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7999,13 +7421,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>15</v>
-      </c>
-      <c r="G246" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8025,13 +7445,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>280</v>
-      </c>
-      <c r="G247" t="s">
-        <v>281</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8051,13 +7469,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>109</v>
-      </c>
-      <c r="G248" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8077,13 +7493,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>15</v>
-      </c>
-      <c r="G249" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8103,13 +7517,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>109</v>
-      </c>
-      <c r="G250" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8129,13 +7541,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>15</v>
-      </c>
-      <c r="G251" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8155,13 +7565,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>109</v>
-      </c>
-      <c r="G252" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8181,13 +7589,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>243</v>
-      </c>
-      <c r="G253" t="s">
-        <v>244</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8207,13 +7613,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>15</v>
-      </c>
-      <c r="G254" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8233,13 +7637,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>243</v>
-      </c>
-      <c r="G255" t="s">
-        <v>244</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8259,13 +7661,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>15</v>
-      </c>
-      <c r="G256" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8285,13 +7685,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>15</v>
-      </c>
-      <c r="G257" t="s">
-        <v>74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8311,13 +7709,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>243</v>
-      </c>
-      <c r="G258" t="s">
-        <v>244</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8337,13 +7733,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>15</v>
-      </c>
-      <c r="G259" t="s">
-        <v>74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8363,13 +7757,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>243</v>
-      </c>
-      <c r="G260" t="s">
-        <v>244</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8389,13 +7781,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>15</v>
-      </c>
-      <c r="G261" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8415,13 +7805,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>243</v>
-      </c>
-      <c r="G262" t="s">
-        <v>244</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8441,13 +7829,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>109</v>
-      </c>
-      <c r="G263" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8467,13 +7853,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>311</v>
-      </c>
-      <c r="G264" t="s">
-        <v>312</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8493,13 +7877,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>15</v>
-      </c>
-      <c r="G265" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8519,13 +7901,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>311</v>
-      </c>
-      <c r="G266" t="s">
-        <v>312</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8545,13 +7925,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>15</v>
-      </c>
-      <c r="G267" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8571,13 +7949,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>311</v>
-      </c>
-      <c r="G268" t="s">
-        <v>312</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8597,13 +7973,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>15</v>
-      </c>
-      <c r="G269" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8623,13 +7997,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>311</v>
-      </c>
-      <c r="G270" t="s">
-        <v>312</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8649,13 +8021,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>15</v>
-      </c>
-      <c r="G271" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8675,13 +8045,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>311</v>
-      </c>
-      <c r="G272" t="s">
-        <v>312</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8701,13 +8069,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>15</v>
-      </c>
-      <c r="G273" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8727,13 +8093,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>15</v>
-      </c>
-      <c r="G274" t="s">
-        <v>274</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8753,13 +8117,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>311</v>
-      </c>
-      <c r="G275" t="s">
-        <v>312</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8779,13 +8141,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>15</v>
-      </c>
-      <c r="G276" t="s">
-        <v>274</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8805,13 +8165,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>311</v>
-      </c>
-      <c r="G277" t="s">
-        <v>312</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8831,13 +8189,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>15</v>
-      </c>
-      <c r="G278" t="s">
-        <v>274</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8857,13 +8213,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>311</v>
-      </c>
-      <c r="G279" t="s">
-        <v>312</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8883,13 +8237,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>15</v>
-      </c>
-      <c r="G280" t="s">
-        <v>274</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8909,13 +8261,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>15</v>
-      </c>
-      <c r="G281" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8935,13 +8285,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>311</v>
-      </c>
-      <c r="G282" t="s">
-        <v>312</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8961,13 +8309,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>109</v>
-      </c>
-      <c r="G283" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8987,13 +8333,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>331</v>
-      </c>
-      <c r="G284" t="s">
-        <v>332</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9013,13 +8357,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>15</v>
-      </c>
-      <c r="G285" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9039,13 +8381,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>15</v>
-      </c>
-      <c r="G286" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9065,13 +8405,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>15</v>
-      </c>
-      <c r="G287" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9091,13 +8429,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>331</v>
-      </c>
-      <c r="G288" t="s">
-        <v>332</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9117,13 +8453,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>15</v>
-      </c>
-      <c r="G289" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9143,13 +8477,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>331</v>
-      </c>
-      <c r="G290" t="s">
-        <v>332</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9169,13 +8501,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>15</v>
-      </c>
-      <c r="G291" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9195,13 +8525,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>15</v>
-      </c>
-      <c r="G292" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9221,13 +8549,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>331</v>
-      </c>
-      <c r="G293" t="s">
-        <v>332</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9247,13 +8573,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>15</v>
-      </c>
-      <c r="G294" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9273,13 +8597,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>331</v>
-      </c>
-      <c r="G295" t="s">
-        <v>332</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9299,13 +8621,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>15</v>
-      </c>
-      <c r="G296" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9325,13 +8645,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>331</v>
-      </c>
-      <c r="G297" t="s">
-        <v>332</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9351,13 +8669,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>15</v>
-      </c>
-      <c r="G298" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9377,13 +8693,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>331</v>
-      </c>
-      <c r="G299" t="s">
-        <v>332</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9403,13 +8717,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>15</v>
-      </c>
-      <c r="G300" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9429,13 +8741,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>331</v>
-      </c>
-      <c r="G301" t="s">
-        <v>332</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9455,13 +8765,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>109</v>
-      </c>
-      <c r="G302" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9481,13 +8789,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>352</v>
-      </c>
-      <c r="G303" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9507,13 +8813,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>15</v>
-      </c>
-      <c r="G304" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9533,13 +8837,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>15</v>
-      </c>
-      <c r="G305" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9559,13 +8861,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>352</v>
-      </c>
-      <c r="G306" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9585,13 +8885,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>15</v>
-      </c>
-      <c r="G307" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9611,13 +8909,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>352</v>
-      </c>
-      <c r="G308" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9637,13 +8933,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>15</v>
-      </c>
-      <c r="G309" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9663,13 +8957,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>352</v>
-      </c>
-      <c r="G310" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9689,13 +8981,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>15</v>
-      </c>
-      <c r="G311" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9715,13 +9005,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>352</v>
-      </c>
-      <c r="G312" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9741,13 +9029,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>15</v>
-      </c>
-      <c r="G313" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9767,13 +9053,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>352</v>
-      </c>
-      <c r="G314" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9793,13 +9077,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>15</v>
-      </c>
-      <c r="G315" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9819,13 +9101,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>352</v>
-      </c>
-      <c r="G316" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9845,13 +9125,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>15</v>
-      </c>
-      <c r="G317" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9871,13 +9149,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>109</v>
-      </c>
-      <c r="G318" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9897,13 +9173,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>15</v>
-      </c>
-      <c r="G319" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9923,13 +9197,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>15</v>
-      </c>
-      <c r="G320" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9949,13 +9221,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>352</v>
-      </c>
-      <c r="G321" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9975,13 +9245,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>15</v>
-      </c>
-      <c r="G322" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10001,13 +9269,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>352</v>
-      </c>
-      <c r="G323" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10027,13 +9293,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>15</v>
-      </c>
-      <c r="G324" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10053,13 +9317,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>352</v>
-      </c>
-      <c r="G325" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10079,13 +9341,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>15</v>
-      </c>
-      <c r="G326" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10105,13 +9365,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>352</v>
-      </c>
-      <c r="G327" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10131,13 +9389,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>15</v>
-      </c>
-      <c r="G328" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10157,13 +9413,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>352</v>
-      </c>
-      <c r="G329" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10183,13 +9437,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>15</v>
-      </c>
-      <c r="G330" t="s">
-        <v>89</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10209,13 +9461,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>352</v>
-      </c>
-      <c r="G331" t="s">
-        <v>353</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10235,13 +9485,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>15</v>
-      </c>
-      <c r="G332" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10261,13 +9509,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>352</v>
-      </c>
-      <c r="G333" t="s">
+        <v>324</v>
+      </c>
+      <c r="G333" t="s"/>
+      <c r="H333" t="s">
         <v>353</v>
-      </c>
-      <c r="H333" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10287,13 +9533,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>109</v>
-      </c>
-      <c r="G334" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10313,13 +9557,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>384</v>
-      </c>
-      <c r="G335" t="s">
-        <v>385</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10339,13 +9581,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>15</v>
-      </c>
-      <c r="G336" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10365,13 +9605,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>384</v>
-      </c>
-      <c r="G337" t="s">
-        <v>385</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10391,13 +9629,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>15</v>
-      </c>
-      <c r="G338" t="s">
-        <v>41</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10417,13 +9653,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>384</v>
-      </c>
-      <c r="G339" t="s">
-        <v>385</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10443,13 +9677,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>15</v>
-      </c>
-      <c r="G340" t="s">
-        <v>41</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10469,13 +9701,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>384</v>
-      </c>
-      <c r="G341" t="s">
-        <v>385</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10495,13 +9725,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>15</v>
-      </c>
-      <c r="G342" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10521,13 +9749,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>384</v>
-      </c>
-      <c r="G343" t="s">
-        <v>385</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10547,13 +9773,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>15</v>
-      </c>
-      <c r="G344" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10573,13 +9797,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>384</v>
-      </c>
-      <c r="G345" t="s">
-        <v>385</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10599,13 +9821,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>15</v>
-      </c>
-      <c r="G346" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10625,13 +9845,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>384</v>
-      </c>
-      <c r="G347" t="s">
-        <v>385</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10651,13 +9869,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>15</v>
-      </c>
-      <c r="G348" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10677,13 +9893,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>384</v>
-      </c>
-      <c r="G349" t="s">
-        <v>385</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10703,13 +9917,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>15</v>
-      </c>
-      <c r="G350" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10729,13 +9941,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>384</v>
-      </c>
-      <c r="G351" t="s">
-        <v>385</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10755,13 +9965,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>15</v>
-      </c>
-      <c r="G352" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10781,13 +9989,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>384</v>
-      </c>
-      <c r="G353" t="s">
-        <v>385</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10807,13 +10013,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>109</v>
-      </c>
-      <c r="G354" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10833,13 +10037,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>15</v>
-      </c>
-      <c r="G355" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10859,13 +10061,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>384</v>
-      </c>
-      <c r="G356" t="s">
-        <v>385</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10885,13 +10085,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>109</v>
-      </c>
-      <c r="G357" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10911,13 +10109,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>384</v>
-      </c>
-      <c r="G358" t="s">
-        <v>385</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10937,13 +10133,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>109</v>
-      </c>
-      <c r="G359" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10963,13 +10157,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>15</v>
-      </c>
-      <c r="G360" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10989,13 +10181,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>109</v>
-      </c>
-      <c r="G361" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11015,13 +10205,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>15</v>
-      </c>
-      <c r="G362" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11041,13 +10229,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>109</v>
-      </c>
-      <c r="G363" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11067,13 +10253,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>15</v>
-      </c>
-      <c r="G364" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11093,13 +10277,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>109</v>
-      </c>
-      <c r="G365" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
